--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2560437.763995989</v>
+        <v>-2563052.042612441</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>124.4279513738219</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>91.66678728863057</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674308</v>
+        <v>14.08691327674309</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>163.2800581305968</v>
+        <v>149.0260745057741</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.1127822067367</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>1.596724502526126</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.90342393179291</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>86.3557887332871</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>292.2383163218281</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>94.08507244101627</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>196.2394859716227</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812072</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>64.91921363453658</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016452</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>178.906041312462</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>9.146142788179944</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>141.5502843483911</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>226.5568791389282</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2779,7 +2779,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600566</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652607</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652593</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
         <v>56.9811888265258</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541846</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.733853119868</v>
+        <v>1966.967981011847</v>
       </c>
       <c r="C2" t="n">
-        <v>745.7713361794561</v>
+        <v>1598.005464071435</v>
       </c>
       <c r="D2" t="n">
-        <v>745.7713361794561</v>
+        <v>1239.739765464685</v>
       </c>
       <c r="E2" t="n">
-        <v>359.9830835812118</v>
+        <v>1239.739765464685</v>
       </c>
       <c r="F2" t="n">
-        <v>359.9830835812118</v>
+        <v>828.753860675077</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9830835812118</v>
+        <v>413.3855650443556</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178315</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
         <v>59.36965571178315</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734995</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447439</v>
+        <v>520.5745606447435</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185025</v>
+        <v>925.851203018502</v>
       </c>
       <c r="M2" t="n">
         <v>1408.468993552357</v>
@@ -4349,31 +4349,31 @@
         <v>2710.70565921571</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719472</v>
+        <v>2927.679802719471</v>
       </c>
       <c r="R2" t="n">
         <v>2968.482785589157</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338332</v>
+        <v>2851.450538338331</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152599</v>
+        <v>2644.177727152598</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788377</v>
       </c>
       <c r="V2" t="n">
-        <v>2264.938783420881</v>
+        <v>2059.560695444807</v>
       </c>
       <c r="W2" t="n">
-        <v>2264.938783420881</v>
+        <v>2059.560695444807</v>
       </c>
       <c r="X2" t="n">
-        <v>1891.473025159801</v>
+        <v>2059.560695444807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1501.333693183989</v>
+        <v>1966.967981011847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902745</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.075791621618</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960367</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.903926954911</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817959</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299297</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182665</v>
+        <v>483.8173226044881</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178315</v>
+        <v>469.5881172744446</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>548.6079372775565</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168901</v>
+        <v>1001.5680375106</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671326</v>
+        <v>1334.580805460842</v>
       </c>
       <c r="M3" t="n">
-        <v>1092.581588039814</v>
+        <v>1742.547866633523</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.754968293605</v>
+        <v>2175.721246887315</v>
       </c>
       <c r="O3" t="n">
-        <v>1899.804188738135</v>
+        <v>2549.770467331844</v>
       </c>
       <c r="P3" t="n">
-        <v>2180.678598663381</v>
+        <v>2830.64487725709</v>
       </c>
       <c r="Q3" t="n">
-        <v>2522.971720424101</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899343</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619123</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853244</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.593313621501</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.3559568933</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687767</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922813</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1085.767806586877</v>
+        <v>360.0176835137894</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8384549398096</v>
+        <v>209.4862951241189</v>
       </c>
       <c r="D4" t="n">
-        <v>770.7218155274738</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="E4" t="n">
-        <v>622.8087219450807</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9187744471703</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263265</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="I4" t="n">
         <v>59.36965571178315</v>
@@ -4522,16 +4522,16 @@
         <v>1085.767806586877</v>
       </c>
       <c r="V4" t="n">
-        <v>1085.767806586877</v>
+        <v>831.0833183809897</v>
       </c>
       <c r="W4" t="n">
-        <v>1085.767806586877</v>
+        <v>541.6661483440291</v>
       </c>
       <c r="X4" t="n">
-        <v>1085.767806586877</v>
+        <v>541.6661483440291</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.767806586877</v>
+        <v>541.6661483440291</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>3118.421193117517</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>2765.652537847403</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2392.186779586323</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970.0546934046005</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046005</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046005</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X7" t="n">
-        <v>970.0546934046005</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y7" t="n">
-        <v>970.0546934046005</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.057359339774</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.094842399362</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1290.094842399362</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>904.3065898011178</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>493.3206850115102</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379707</v>
+        <v>2313.82580263309</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.657199403895</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1742.428664137924</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1742.428664137924</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1453.325797263567</v>
+        <v>1507.30622965638</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1252.621741450493</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>963.2045714135322</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>408.674428952387</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4783296672669</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5200,19 +5200,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,7 +5434,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951537</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400714</v>
+        <v>803.8641191832222</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
         <v>435.741944003834</v>
@@ -5683,7 +5683,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467617</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.06341926173</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>1024.656698326752</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703112</v>
+        <v>803.8641191832222</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>659.9487421954784</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C22" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U22" t="n">
-        <v>1834.480995310113</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1579.796507104226</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1290.379337067266</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1062.389786169248</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y22" t="n">
-        <v>841.5972070257181</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.1291986799074</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799074</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675716</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1271.559793551695</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>822.7776635101471</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190824</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150023</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979287</v>
@@ -6418,13 +6418,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6601,25 +6601,25 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,25 +7108,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525741</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>206.5204176046998</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>9.872575263447146</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851262</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>203.324307096313</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>294.571151367423</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.96676296803102</v>
+        <v>18.22074659285371</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792919</v>
+        <v>94.8394318079292</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405071</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>75.37549921168738</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>107.2784330767821</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>59.62759525031598</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1137658.27246258</v>
+        <v>1137658.272462579</v>
       </c>
     </row>
     <row r="3">
@@ -26314,10 +26314,10 @@
         <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225015</v>
@@ -26326,31 +26326,31 @@
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871474</v>
+        <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973032</v>
+        <v>95186.49343973094</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>213599.1454818041</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359967</v>
+        <v>22978.01038359976</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18331.20513627363</v>
+        <v>18331.20513627364</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="J4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992393</v>
       </c>
       <c r="M4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992394</v>
+        <v>20987.72340992396</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331638.228748003</v>
+        <v>-1332067.787614592</v>
       </c>
       <c r="C6" t="n">
-        <v>-274778.2886726983</v>
+        <v>-274778.2886726989</v>
       </c>
       <c r="D6" t="n">
-        <v>-179591.7952329679</v>
+        <v>-179591.795232968</v>
       </c>
       <c r="E6" t="n">
-        <v>-419353.1907858428</v>
+        <v>-419387.9287112785</v>
       </c>
       <c r="F6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392305</v>
       </c>
       <c r="G6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="H6" t="n">
-        <v>-93940.72897848737</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="I6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392308</v>
       </c>
       <c r="J6" t="n">
-        <v>-317224.9404990364</v>
+        <v>-317224.9404990363</v>
       </c>
       <c r="K6" t="n">
-        <v>-126603.8054008319</v>
+        <v>-126603.805400832</v>
       </c>
       <c r="L6" t="n">
         <v>-103625.7950172322</v>
@@ -26558,7 +26558,7 @@
         <v>-103625.7950172322</v>
       </c>
       <c r="O6" t="n">
-        <v>-123053.5130108641</v>
+        <v>-123053.513010864</v>
       </c>
       <c r="P6" t="n">
         <v>-103625.7950172322</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26790,10 +26790,10 @@
         <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396915</v>
+        <v>72.85564646396972</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500323</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>122.6394762633982</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>368.1343761759429</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3433971668349</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.0724053833429</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>324.5659369201663</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>77.49278435664098</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>95.68395289042563</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>89.97235223399022</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.088124840720916</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>41.86750852503309</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31060,16 +31060,16 @@
         <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419355</v>
+        <v>729.4543356419354</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570168</v>
+        <v>688.8030442570167</v>
       </c>
       <c r="P2" t="n">
         <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934012</v>
+        <v>441.4714913934011</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259355</v>
@@ -31081,7 +31081,7 @@
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3270499872576732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.187339625863084</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.309719574672</v>
+        <v>75.30971957467199</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
@@ -31136,16 +31136,16 @@
         <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004841</v>
+        <v>554.221974500484</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265572</v>
+        <v>568.8905810265571</v>
       </c>
       <c r="O3" t="n">
         <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913464</v>
+        <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224527</v>
@@ -31209,16 +31209,16 @@
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>272.6348675283777</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31230,13 +31230,13 @@
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.4539595692403</v>
+        <v>82.45395956924028</v>
       </c>
       <c r="S4" t="n">
         <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.83529336788171</v>
+        <v>7.835293367881709</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L17" t="n">
         <v>867.8464071162563</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,7 +32324,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>574.2721069128556</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33020,10 +33020,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>405.637736314577</v>
+        <v>509.0826837242969</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>510.682889626564</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34708,19 +34708,19 @@
         <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453446</v>
+        <v>500.0412720453444</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353301</v>
+        <v>458.70483283533</v>
       </c>
       <c r="P2" t="n">
         <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189517</v>
+        <v>219.1658015189516</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180339</v>
+        <v>41.21513421180333</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314342</v>
+        <v>79.8180000031434</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>457.5354547808519</v>
       </c>
       <c r="L3" t="n">
         <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784657</v>
+        <v>412.0879405784656</v>
       </c>
       <c r="N3" t="n">
-        <v>437.548868943224</v>
+        <v>437.5488689432239</v>
       </c>
       <c r="O3" t="n">
         <v>377.8274953985149</v>
@@ -34796,10 +34796,10 @@
         <v>283.7115251770161</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.7506280411311</v>
+        <v>139.2302104364312</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634014</v>
+        <v>36.28991886634012</v>
       </c>
       <c r="K4" t="n">
         <v>190.7838044326879</v>
@@ -34863,19 +34863,19 @@
         <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>327.0391185413817</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183425</v>
+        <v>67.39303592183423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,13 +36680,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312436</v>
+        <v>377.7409716409636</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016747</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>368.5488557045456</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
